--- a/data/trans_camb/P14B23-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P14B23-Dificultad-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.207993765768551</v>
+        <v>-2.047328894780094</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.281718571548444</v>
+        <v>3.095010441812527</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.858762955191125</v>
+        <v>-5.444323513592936</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.344391033842374</v>
+        <v>-1.924153960509654</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.150617297300166</v>
+        <v>-3.275188743971793</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.59291521082427</v>
+        <v>1.533441631355172</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.178838172215726</v>
+        <v>1.178261650447244</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.475442151581538</v>
+        <v>9.238650057592267</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.3188339117280825</v>
+        <v>0.04577551257586999</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.2339344740236</v>
+        <v>4.268723016805477</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1394583026175151</v>
+        <v>0.1950874679087853</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.823264996846733</v>
+        <v>5.825926158686552</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4272120584653589</v>
+        <v>-0.4119561642458755</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.6554449781591412</v>
+        <v>0.5713601081031012</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3683258895877429</v>
+        <v>-0.3604766997579469</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.157813384268264</v>
+        <v>-0.1268179827624565</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3180330277618173</v>
+        <v>-0.3274763702861449</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1458793368789906</v>
+        <v>0.1564400151190149</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3771579717779703</v>
+        <v>0.3598462226101937</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.929547785912557</v>
+        <v>2.811015597772486</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.0231619800345937</v>
+        <v>0.002133242334548232</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3466862626090997</v>
+        <v>0.3508547762814329</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.02101299068840348</v>
+        <v>0.02371289081637561</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7027662995581622</v>
+        <v>0.6974937500160677</v>
       </c>
     </row>
     <row r="10">
@@ -784,7 +784,7 @@
         <v>-0.7880614450024553</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>1.594278159103928</v>
+        <v>1.594278159103927</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.911433275112898</v>
+        <v>-1.917887724094619</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.5553383182770446</v>
+        <v>-0.6598777826581836</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.000647231092021</v>
+        <v>-2.859733285979094</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.305790801678365</v>
+        <v>-0.007822236180643566</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.980104997415747</v>
+        <v>-2.047516352162822</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2926186915533637</v>
+        <v>0.2984757062881891</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5158956597743838</v>
+        <v>0.6370282257616847</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.226262761478746</v>
+        <v>2.175379343104603</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.064460335908995</v>
+        <v>1.057968515799313</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.571429326884218</v>
+        <v>4.140158485673789</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3726482787354728</v>
+        <v>0.4240279753021005</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.775817424597211</v>
+        <v>2.830202736571759</v>
       </c>
     </row>
     <row r="13">
@@ -862,7 +862,7 @@
         <v>-0.1927733726705888</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3899878361700136</v>
+        <v>0.3899878361700135</v>
       </c>
     </row>
     <row r="14">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6741909332923296</v>
+        <v>-0.654017278796959</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2030342357351647</v>
+        <v>-0.2480125668155472</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4294156509349226</v>
+        <v>-0.4286757573016574</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.03811265756200891</v>
+        <v>0.002430360348494305</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4165468515598013</v>
+        <v>-0.4343458796103045</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05568043734012069</v>
+        <v>0.05525966998629238</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4289279411631483</v>
+        <v>0.4933453544981454</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.522516629611313</v>
+        <v>1.468763071286157</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2389502943727131</v>
+        <v>0.224300830415864</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.9834952954131124</v>
+        <v>0.8706044759973753</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1251159184449291</v>
+        <v>0.1239205869348555</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8510125341316361</v>
+        <v>0.7885523667198542</v>
       </c>
     </row>
     <row r="16">
@@ -938,13 +938,13 @@
         <v>-1.255813312936658</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.331944400507904</v>
+        <v>1.331944400507906</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>-1.154940870249496</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.6989524291809136</v>
+        <v>0.698952429180915</v>
       </c>
     </row>
     <row r="17">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.313017093473117</v>
+        <v>-2.32120116031742</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.486725054530243</v>
+        <v>-1.408601387323971</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.441892602762346</v>
+        <v>-3.450488888150076</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.7566447292166103</v>
+        <v>-0.834722133891533</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.467327150341883</v>
+        <v>-2.384418249578403</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.5755371361350627</v>
+        <v>-0.5914078906506655</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1608580051144582</v>
+        <v>0.183058553437012</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.214833523610714</v>
+        <v>1.357083380598058</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8477465441720029</v>
+        <v>0.7698115385902277</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.331333020758412</v>
+        <v>3.290627013363344</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1081419679732398</v>
+        <v>0.04140862820069396</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.927934805657487</v>
+        <v>1.944835475305906</v>
       </c>
     </row>
     <row r="19">
@@ -1016,13 +1016,13 @@
         <v>-0.2404643357618572</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.255041989315185</v>
+        <v>0.2550419893151853</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.3183590949695059</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1926660217095824</v>
+        <v>0.1926660217095828</v>
       </c>
     </row>
     <row r="20">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7856759812099051</v>
+        <v>-0.8002590743054214</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4996495786431487</v>
+        <v>-0.4690708719329371</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5498632033166629</v>
+        <v>-0.5414245894442368</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.124122637582607</v>
+        <v>-0.1300756610965303</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5701140080760947</v>
+        <v>-0.5605775710336687</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1344881720929873</v>
+        <v>-0.1451084222364761</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2549415297392927</v>
+        <v>0.2248402585082674</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.9964486269373728</v>
+        <v>1.028824433121437</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2289766213834294</v>
+        <v>0.1988018105670071</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.8433557630967262</v>
+        <v>0.8061857795466344</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.05548791908878069</v>
+        <v>0.0233476598826003</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.665691089144583</v>
+        <v>0.6771739527382383</v>
       </c>
     </row>
     <row r="22">
@@ -1092,7 +1092,7 @@
         <v>-0.4428013634342209</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>1.956276254445986</v>
+        <v>1.956276254445985</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>-0.7818020729364619</v>
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.519832693209565</v>
+        <v>-1.553618039821393</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6553581887919572</v>
+        <v>0.72138759557618</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.133024616111969</v>
+        <v>-3.244294141103706</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.403840462088044</v>
+        <v>-1.325832853309855</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.910789247226627</v>
+        <v>-2.00950437368385</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2522572808235903</v>
+        <v>0.3323022601845257</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4188954411860745</v>
+        <v>0.42882775042646</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.635213845480457</v>
+        <v>3.525928445136897</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.709226656587477</v>
+        <v>1.532414508590494</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.14532381464613</v>
+        <v>3.120591788805132</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6894044047866923</v>
+        <v>0.6820214066812263</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.888632076253482</v>
+        <v>2.953573032066629</v>
       </c>
     </row>
     <row r="25">
@@ -1176,7 +1176,7 @@
         <v>-0.1991398197455179</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.2832349921311348</v>
+        <v>0.283234992131135</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.2409786782999709</v>
@@ -1194,19 +1194,19 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>0.2135723208894762</v>
+        <v>0.2377238966793295</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5913800615545178</v>
+        <v>-0.617297585350344</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2445581295009873</v>
+        <v>-0.2268037759044864</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6059746074159856</v>
+        <v>-0.6571382776097767</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05601296953126886</v>
+        <v>0.07563389551039176</v>
       </c>
     </row>
     <row r="27">
@@ -1218,19 +1218,19 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>13.15581002661376</v>
+        <v>12.42962583100185</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6984703937135935</v>
+        <v>0.5936481018720975</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.275657133978516</v>
+        <v>1.320202151275802</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5137012011051841</v>
+        <v>0.4135834316507114</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.815180282002979</v>
+        <v>1.778806364759125</v>
       </c>
     </row>
     <row r="28">
@@ -1271,22 +1271,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.308926611836321</v>
+        <v>-1.308836798928591</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2278745941570343</v>
+        <v>0.1980715851552738</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.629817633907682</v>
+        <v>-2.572917772663158</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.192557080416753</v>
+        <v>-1.167798140635609</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.69340748105432</v>
+        <v>-1.669708765398765</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.1512238439614064</v>
+        <v>-0.157491883276368</v>
       </c>
     </row>
     <row r="30">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1911193954097895</v>
+        <v>0.199388456176294</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.96966599223385</v>
+        <v>1.93957555335681</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.001906359084535353</v>
+        <v>-0.04405417004196192</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.307131880256348</v>
+        <v>1.11711372879631</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.2037021860984524</v>
+        <v>-0.2014996924139522</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.332824783256733</v>
+        <v>1.322028211285543</v>
       </c>
     </row>
     <row r="31">
@@ -1349,22 +1349,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4307321357402667</v>
+        <v>-0.445788349585403</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.07677515886852483</v>
+        <v>0.07183785128209623</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3059775813222511</v>
+        <v>-0.2990150280072427</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1355657169390493</v>
+        <v>-0.1297270833033943</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2940346802935426</v>
+        <v>-0.2984391916586871</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.02765170571488271</v>
+        <v>-0.03002486263036633</v>
       </c>
     </row>
     <row r="33">
@@ -1375,22 +1375,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1135794033367118</v>
+        <v>0.0931345452446856</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.9638836190438127</v>
+        <v>0.9154479051747751</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.0007463177883760114</v>
+        <v>-0.002890561539074802</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1793585849734054</v>
+        <v>0.1520165811691397</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.04082627406733957</v>
+        <v>-0.04504128682255531</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2721900032890572</v>
+        <v>0.2716221452457686</v>
       </c>
     </row>
     <row r="34">
